--- a/natmiOut/OldD7/LR-pairs_lrc2p/Dcn-Met.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Dcn-Met.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.51619222755681</v>
+        <v>22.73180333333334</v>
       </c>
       <c r="H2">
-        <v>6.51619222755681</v>
+        <v>68.19541000000001</v>
       </c>
       <c r="I2">
-        <v>0.00214968070905246</v>
+        <v>0.007290521456144306</v>
       </c>
       <c r="J2">
-        <v>0.00214968070905246</v>
+        <v>0.007290521456144306</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.45199309181384</v>
+        <v>3.167735333333333</v>
       </c>
       <c r="N2">
-        <v>1.45199309181384</v>
+        <v>9.503206</v>
       </c>
       <c r="O2">
-        <v>0.08985323938838671</v>
+        <v>0.1182666224938439</v>
       </c>
       <c r="P2">
-        <v>0.08985323938838671</v>
+        <v>0.1182666224938439</v>
       </c>
       <c r="Q2">
-        <v>9.461466099343525</v>
+        <v>72.00833660938446</v>
       </c>
       <c r="R2">
-        <v>9.461466099343525</v>
+        <v>648.0750294844602</v>
       </c>
       <c r="S2">
-        <v>0.0001931557753590876</v>
+        <v>0.0008622253488370877</v>
       </c>
       <c r="T2">
-        <v>0.0001931557753590876</v>
+        <v>0.0008622253488370878</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.51619222755681</v>
+        <v>22.73180333333334</v>
       </c>
       <c r="H3">
-        <v>6.51619222755681</v>
+        <v>68.19541000000001</v>
       </c>
       <c r="I3">
-        <v>0.00214968070905246</v>
+        <v>0.007290521456144306</v>
       </c>
       <c r="J3">
-        <v>0.00214968070905246</v>
+        <v>0.007290521456144306</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.8579448632048911</v>
+        <v>0.9421210000000001</v>
       </c>
       <c r="N3">
-        <v>0.8579448632048911</v>
+        <v>2.826363</v>
       </c>
       <c r="O3">
-        <v>0.05309193660094174</v>
+        <v>0.03517385669126484</v>
       </c>
       <c r="P3">
-        <v>0.05309193660094174</v>
+        <v>0.03517385669126484</v>
       </c>
       <c r="Q3">
-        <v>5.590533649288002</v>
+        <v>21.41610928820334</v>
       </c>
       <c r="R3">
-        <v>5.590533649288002</v>
+        <v>192.74498359383</v>
       </c>
       <c r="S3">
-        <v>0.0001141307119172807</v>
+        <v>0.0002564357569030113</v>
       </c>
       <c r="T3">
-        <v>0.0001141307119172807</v>
+        <v>0.0002564357569030113</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.51619222755681</v>
+        <v>22.73180333333334</v>
       </c>
       <c r="H4">
-        <v>6.51619222755681</v>
+        <v>68.19541000000001</v>
       </c>
       <c r="I4">
-        <v>0.00214968070905246</v>
+        <v>0.007290521456144306</v>
       </c>
       <c r="J4">
-        <v>0.00214968070905246</v>
+        <v>0.007290521456144306</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.26122976849104</v>
+        <v>1.442127</v>
       </c>
       <c r="N4">
-        <v>1.26122976849104</v>
+        <v>4.326381</v>
       </c>
       <c r="O4">
-        <v>0.07804829165572535</v>
+        <v>0.05384145818700961</v>
       </c>
       <c r="P4">
-        <v>0.07804829165572535</v>
+        <v>0.0538414581870096</v>
       </c>
       <c r="Q4">
-        <v>8.21841561460459</v>
+        <v>32.78214734569</v>
       </c>
       <c r="R4">
-        <v>8.21841561460459</v>
+        <v>295.03932611121</v>
       </c>
       <c r="S4">
-        <v>0.0001677789069468129</v>
+        <v>0.0003925323061424901</v>
       </c>
       <c r="T4">
-        <v>0.0001677789069468129</v>
+        <v>0.00039253230614249</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.51619222755681</v>
+        <v>22.73180333333334</v>
       </c>
       <c r="H5">
-        <v>6.51619222755681</v>
+        <v>68.19541000000001</v>
       </c>
       <c r="I5">
-        <v>0.00214968070905246</v>
+        <v>0.007290521456144306</v>
       </c>
       <c r="J5">
-        <v>0.00214968070905246</v>
+        <v>0.007290521456144306</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>12.5884398955062</v>
+        <v>21.232711</v>
       </c>
       <c r="N5">
-        <v>12.5884398955062</v>
+        <v>63.69813300000001</v>
       </c>
       <c r="O5">
-        <v>0.7790065323549461</v>
+        <v>0.7927180626278817</v>
       </c>
       <c r="P5">
-        <v>0.7790065323549461</v>
+        <v>0.7927180626278817</v>
       </c>
       <c r="Q5">
-        <v>82.02869420416356</v>
+        <v>482.6578106855034</v>
       </c>
       <c r="R5">
-        <v>82.02869420416356</v>
+        <v>4343.920296169531</v>
       </c>
       <c r="S5">
-        <v>0.001674615314829279</v>
+        <v>0.005779328044261717</v>
       </c>
       <c r="T5">
-        <v>0.001674615314829279</v>
+        <v>0.005779328044261717</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3015.31565795238</v>
+        <v>3042.696044666667</v>
       </c>
       <c r="H6">
-        <v>3015.31565795238</v>
+        <v>9128.088134</v>
       </c>
       <c r="I6">
-        <v>0.994747495967352</v>
+        <v>0.9758504625824999</v>
       </c>
       <c r="J6">
-        <v>0.994747495967352</v>
+        <v>0.9758504625824997</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.45199309181384</v>
+        <v>3.167735333333333</v>
       </c>
       <c r="N6">
-        <v>1.45199309181384</v>
+        <v>9.503206</v>
       </c>
       <c r="O6">
-        <v>0.08985323938838671</v>
+        <v>0.1182666224938439</v>
       </c>
       <c r="P6">
-        <v>0.08985323938838671</v>
+        <v>0.1182666224938439</v>
       </c>
       <c r="Q6">
-        <v>4378.217504984959</v>
+        <v>9638.455769284179</v>
       </c>
       <c r="R6">
-        <v>4378.217504984959</v>
+        <v>86746.10192355761</v>
       </c>
       <c r="S6">
-        <v>0.08938128488615273</v>
+        <v>0.1154105382686875</v>
       </c>
       <c r="T6">
-        <v>0.08938128488615273</v>
+        <v>0.1154105382686875</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3015.31565795238</v>
+        <v>3042.696044666667</v>
       </c>
       <c r="H7">
-        <v>3015.31565795238</v>
+        <v>9128.088134</v>
       </c>
       <c r="I7">
-        <v>0.994747495967352</v>
+        <v>0.9758504625824999</v>
       </c>
       <c r="J7">
-        <v>0.994747495967352</v>
+        <v>0.9758504625824997</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.8579448632048911</v>
+        <v>0.9421210000000001</v>
       </c>
       <c r="N7">
-        <v>0.8579448632048911</v>
+        <v>2.826363</v>
       </c>
       <c r="O7">
-        <v>0.05309193660094174</v>
+        <v>0.03517385669126484</v>
       </c>
       <c r="P7">
-        <v>0.05309193660094174</v>
+        <v>0.03517385669126484</v>
       </c>
       <c r="Q7">
-        <v>2586.974579681521</v>
+        <v>2866.587840297405</v>
       </c>
       <c r="R7">
-        <v>2586.974579681521</v>
+        <v>25799.29056267664</v>
       </c>
       <c r="S7">
-        <v>0.0528130709898442</v>
+        <v>0.03432442432298135</v>
       </c>
       <c r="T7">
-        <v>0.0528130709898442</v>
+        <v>0.03432442432298135</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3015.31565795238</v>
+        <v>3042.696044666667</v>
       </c>
       <c r="H8">
-        <v>3015.31565795238</v>
+        <v>9128.088134</v>
       </c>
       <c r="I8">
-        <v>0.994747495967352</v>
+        <v>0.9758504625824999</v>
       </c>
       <c r="J8">
-        <v>0.994747495967352</v>
+        <v>0.9758504625824997</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.26122976849104</v>
+        <v>1.442127</v>
       </c>
       <c r="N8">
-        <v>1.26122976849104</v>
+        <v>4.326381</v>
       </c>
       <c r="O8">
-        <v>0.07804829165572535</v>
+        <v>0.05384145818700961</v>
       </c>
       <c r="P8">
-        <v>0.07804829165572535</v>
+        <v>0.0538414581870096</v>
       </c>
       <c r="Q8">
-        <v>3803.005869206689</v>
+        <v>4387.954118807006</v>
       </c>
       <c r="R8">
-        <v>3803.005869206689</v>
+        <v>39491.58706926305</v>
       </c>
       <c r="S8">
-        <v>0.07763834268906238</v>
+        <v>0.05254121187790965</v>
       </c>
       <c r="T8">
-        <v>0.07763834268906238</v>
+        <v>0.05254121187790964</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3015.31565795238</v>
+        <v>3042.696044666667</v>
       </c>
       <c r="H9">
-        <v>3015.31565795238</v>
+        <v>9128.088134</v>
       </c>
       <c r="I9">
-        <v>0.994747495967352</v>
+        <v>0.9758504625824999</v>
       </c>
       <c r="J9">
-        <v>0.994747495967352</v>
+        <v>0.9758504625824997</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>12.5884398955062</v>
+        <v>21.232711</v>
       </c>
       <c r="N9">
-        <v>12.5884398955062</v>
+        <v>63.69813300000001</v>
       </c>
       <c r="O9">
-        <v>0.7790065323549461</v>
+        <v>0.7927180626278817</v>
       </c>
       <c r="P9">
-        <v>0.7790065323549461</v>
+        <v>0.7927180626278817</v>
       </c>
       <c r="Q9">
-        <v>37958.11992611227</v>
+        <v>64604.68577725043</v>
       </c>
       <c r="R9">
-        <v>37958.11992611227</v>
+        <v>581442.1719952539</v>
       </c>
       <c r="S9">
-        <v>0.7749147974022926</v>
+        <v>0.7735742881129214</v>
       </c>
       <c r="T9">
-        <v>0.7749147974022926</v>
+        <v>0.7735742881129214</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.84615856485442</v>
+        <v>1.93578</v>
       </c>
       <c r="H10">
-        <v>1.84615856485442</v>
+        <v>5.80734</v>
       </c>
       <c r="I10">
-        <v>0.0006090445637770164</v>
+        <v>0.0006208414447999517</v>
       </c>
       <c r="J10">
-        <v>0.0006090445637770164</v>
+        <v>0.0006208414447999516</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.45199309181384</v>
+        <v>3.167735333333333</v>
       </c>
       <c r="N10">
-        <v>1.45199309181384</v>
+        <v>9.503206</v>
       </c>
       <c r="O10">
-        <v>0.08985323938838671</v>
+        <v>0.1182666224938439</v>
       </c>
       <c r="P10">
-        <v>0.08985323938838671</v>
+        <v>0.1182666224938439</v>
       </c>
       <c r="Q10">
-        <v>2.680609482561571</v>
+        <v>6.13203870356</v>
       </c>
       <c r="R10">
-        <v>2.680609482561571</v>
+        <v>55.18834833204</v>
       </c>
       <c r="S10">
-        <v>5.472462698725181E-05</v>
+        <v>7.342482078068851E-05</v>
       </c>
       <c r="T10">
-        <v>5.472462698725181E-05</v>
+        <v>7.34248207806885E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.84615856485442</v>
+        <v>1.93578</v>
       </c>
       <c r="H11">
-        <v>1.84615856485442</v>
+        <v>5.80734</v>
       </c>
       <c r="I11">
-        <v>0.0006090445637770164</v>
+        <v>0.0006208414447999517</v>
       </c>
       <c r="J11">
-        <v>0.0006090445637770164</v>
+        <v>0.0006208414447999516</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.8579448632048911</v>
+        <v>0.9421210000000001</v>
       </c>
       <c r="N11">
-        <v>0.8579448632048911</v>
+        <v>2.826363</v>
       </c>
       <c r="O11">
-        <v>0.05309193660094174</v>
+        <v>0.03517385669126484</v>
       </c>
       <c r="P11">
-        <v>0.05309193660094174</v>
+        <v>0.03517385669126484</v>
       </c>
       <c r="Q11">
-        <v>1.583902257378563</v>
+        <v>1.82373898938</v>
       </c>
       <c r="R11">
-        <v>1.583902257378563</v>
+        <v>16.41365090442</v>
       </c>
       <c r="S11">
-        <v>3.233535536719757E-05</v>
+        <v>2.183738800739131E-05</v>
       </c>
       <c r="T11">
-        <v>3.233535536719757E-05</v>
+        <v>2.183738800739131E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.84615856485442</v>
+        <v>1.93578</v>
       </c>
       <c r="H12">
-        <v>1.84615856485442</v>
+        <v>5.80734</v>
       </c>
       <c r="I12">
-        <v>0.0006090445637770164</v>
+        <v>0.0006208414447999517</v>
       </c>
       <c r="J12">
-        <v>0.0006090445637770164</v>
+        <v>0.0006208414447999516</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.26122976849104</v>
+        <v>1.442127</v>
       </c>
       <c r="N12">
-        <v>1.26122976849104</v>
+        <v>4.326381</v>
       </c>
       <c r="O12">
-        <v>0.07804829165572535</v>
+        <v>0.05384145818700961</v>
       </c>
       <c r="P12">
-        <v>0.07804829165572535</v>
+        <v>0.0538414581870096</v>
       </c>
       <c r="Q12">
-        <v>2.328430139349091</v>
+        <v>2.79164060406</v>
       </c>
       <c r="R12">
-        <v>2.328430139349091</v>
+        <v>25.12476543654</v>
       </c>
       <c r="S12">
-        <v>4.753488774500259E-05</v>
+        <v>3.342700869095923E-05</v>
       </c>
       <c r="T12">
-        <v>4.753488774500259E-05</v>
+        <v>3.342700869095922E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.84615856485442</v>
+        <v>1.93578</v>
       </c>
       <c r="H13">
-        <v>1.84615856485442</v>
+        <v>5.80734</v>
       </c>
       <c r="I13">
-        <v>0.0006090445637770164</v>
+        <v>0.0006208414447999517</v>
       </c>
       <c r="J13">
-        <v>0.0006090445637770164</v>
+        <v>0.0006208414447999516</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>12.5884398955062</v>
+        <v>21.232711</v>
       </c>
       <c r="N13">
-        <v>12.5884398955062</v>
+        <v>63.69813300000001</v>
       </c>
       <c r="O13">
-        <v>0.7790065323549461</v>
+        <v>0.7927180626278817</v>
       </c>
       <c r="P13">
-        <v>0.7790065323549461</v>
+        <v>0.7927180626278817</v>
       </c>
       <c r="Q13">
-        <v>23.24025613124385</v>
+        <v>41.10185729958</v>
       </c>
       <c r="R13">
-        <v>23.24025613124385</v>
+        <v>369.91671569622</v>
       </c>
       <c r="S13">
-        <v>0.0004744496936775643</v>
+        <v>0.0004921522273209127</v>
       </c>
       <c r="T13">
-        <v>0.0004744496936775643</v>
+        <v>0.0004921522273209126</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>7.55923505455737</v>
+        <v>50.63053333333333</v>
       </c>
       <c r="H14">
-        <v>7.55923505455737</v>
+        <v>151.8916</v>
       </c>
       <c r="I14">
-        <v>0.002493778759818428</v>
+        <v>0.016238174516556</v>
       </c>
       <c r="J14">
-        <v>0.002493778759818428</v>
+        <v>0.016238174516556</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.45199309181384</v>
+        <v>3.167735333333333</v>
       </c>
       <c r="N14">
-        <v>1.45199309181384</v>
+        <v>9.503206</v>
       </c>
       <c r="O14">
-        <v>0.08985323938838671</v>
+        <v>0.1182666224938439</v>
       </c>
       <c r="P14">
-        <v>0.08985323938838671</v>
+        <v>0.1182666224938439</v>
       </c>
       <c r="Q14">
-        <v>10.97595707861432</v>
+        <v>160.3841293855111</v>
       </c>
       <c r="R14">
-        <v>10.97595707861432</v>
+        <v>1443.4571644696</v>
       </c>
       <c r="S14">
-        <v>0.0002240740998876394</v>
+        <v>0.001920434055538685</v>
       </c>
       <c r="T14">
-        <v>0.0002240740998876394</v>
+        <v>0.001920434055538685</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>7.55923505455737</v>
+        <v>50.63053333333333</v>
       </c>
       <c r="H15">
-        <v>7.55923505455737</v>
+        <v>151.8916</v>
       </c>
       <c r="I15">
-        <v>0.002493778759818428</v>
+        <v>0.016238174516556</v>
       </c>
       <c r="J15">
-        <v>0.002493778759818428</v>
+        <v>0.016238174516556</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.8579448632048911</v>
+        <v>0.9421210000000001</v>
       </c>
       <c r="N15">
-        <v>0.8579448632048911</v>
+        <v>2.826363</v>
       </c>
       <c r="O15">
-        <v>0.05309193660094174</v>
+        <v>0.03517385669126484</v>
       </c>
       <c r="P15">
-        <v>0.05309193660094174</v>
+        <v>0.03517385669126484</v>
       </c>
       <c r="Q15">
-        <v>6.48540688481584</v>
+        <v>47.70008869453333</v>
       </c>
       <c r="R15">
-        <v>6.48540688481584</v>
+        <v>429.3007982508</v>
       </c>
       <c r="S15">
-        <v>0.0001323995438130551</v>
+        <v>0.0005711592233730895</v>
       </c>
       <c r="T15">
-        <v>0.0001323995438130551</v>
+        <v>0.0005711592233730895</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>7.55923505455737</v>
+        <v>50.63053333333333</v>
       </c>
       <c r="H16">
-        <v>7.55923505455737</v>
+        <v>151.8916</v>
       </c>
       <c r="I16">
-        <v>0.002493778759818428</v>
+        <v>0.016238174516556</v>
       </c>
       <c r="J16">
-        <v>0.002493778759818428</v>
+        <v>0.016238174516556</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.26122976849104</v>
+        <v>1.442127</v>
       </c>
       <c r="N16">
-        <v>1.26122976849104</v>
+        <v>4.326381</v>
       </c>
       <c r="O16">
-        <v>0.07804829165572535</v>
+        <v>0.05384145818700961</v>
       </c>
       <c r="P16">
-        <v>0.07804829165572535</v>
+        <v>0.0538414581870096</v>
       </c>
       <c r="Q16">
-        <v>9.533932277828747</v>
+        <v>73.01565914439999</v>
       </c>
       <c r="R16">
-        <v>9.533932277828747</v>
+        <v>657.1409322995999</v>
       </c>
       <c r="S16">
-        <v>0.0001946351719711618</v>
+        <v>0.0008742869942665149</v>
       </c>
       <c r="T16">
-        <v>0.0001946351719711618</v>
+        <v>0.0008742869942665148</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>7.55923505455737</v>
+        <v>50.63053333333333</v>
       </c>
       <c r="H17">
-        <v>7.55923505455737</v>
+        <v>151.8916</v>
       </c>
       <c r="I17">
-        <v>0.002493778759818428</v>
+        <v>0.016238174516556</v>
       </c>
       <c r="J17">
-        <v>0.002493778759818428</v>
+        <v>0.016238174516556</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>12.5884398955062</v>
+        <v>21.232711</v>
       </c>
       <c r="N17">
-        <v>12.5884398955062</v>
+        <v>63.69813300000001</v>
       </c>
       <c r="O17">
-        <v>0.7790065323549461</v>
+        <v>0.7927180626278817</v>
       </c>
       <c r="P17">
-        <v>0.7790065323549461</v>
+        <v>0.7927180626278817</v>
       </c>
       <c r="Q17">
-        <v>95.15897614029899</v>
+        <v>1075.023482042533</v>
       </c>
       <c r="R17">
-        <v>95.15897614029899</v>
+        <v>9675.2113383828</v>
       </c>
       <c r="S17">
-        <v>0.001942669944146572</v>
+        <v>0.01287229424337771</v>
       </c>
       <c r="T17">
-        <v>0.001942669944146572</v>
+        <v>0.01287229424337771</v>
       </c>
     </row>
   </sheetData>
